--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_DOANH_THU.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_DOANH_THU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project Github\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F652168-EA8A-433C-9EC1-3ECCD4164E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF19357F-9132-409B-86F7-22B81C22C192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dòng tiền chi khác của dự án" sheetId="1" r:id="rId1"/>
@@ -221,9 +221,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -261,7 +261,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -367,7 +367,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -509,7 +509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -526,14 +526,14 @@
       <selection pane="bottomRight" activeCell="D2" sqref="D2:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" style="1" customWidth="1"/>
-    <col min="2" max="14" width="15.77734375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="40.7109375" style="1" customWidth="1"/>
+    <col min="2" max="14" width="20.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -565,10 +565,10 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
@@ -612,7 +612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -628,7 +628,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -644,124 +644,124 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">

--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_DOANH_THU.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_DOANH_THU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project Github\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF19357F-9132-409B-86F7-22B81C22C192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FF4B5F-D9A2-4C8C-82D3-D45A19157DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dòng tiền chi khác của dự án" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -185,9 +185,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -203,6 +200,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -221,9 +224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -261,7 +264,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -367,7 +370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -509,7 +512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -523,245 +526,245 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:I3"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="1" customWidth="1"/>
-    <col min="2" max="14" width="20.7109375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="40.6640625" style="1" customWidth="1"/>
+    <col min="2" max="14" width="20.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+    <row r="2" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="5" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">

--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_DOANH_THU.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_DOANH_THU.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FF4B5F-D9A2-4C8C-82D3-D45A19157DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8422458-A9A6-4E0F-9747-D55D3E207BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dòng tiền chi khác của dự án" sheetId="1" r:id="rId1"/>
+    <sheet name="Tổng hợp KH doanh thu" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dòng tiền chi khác của dự án'!$A$6:$N$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tổng hợp KH doanh thu'!$A$6:$N$138</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -117,7 +124,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,27 +198,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -526,98 +538,99 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" style="1" customWidth="1"/>
-    <col min="2" max="14" width="20.6640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="27.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="14" width="18.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+    <row r="2" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
+    <row r="7" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -631,9 +644,9 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
+    <row r="8" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -647,127 +660,127 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
